--- a/Moderate_Control_Two_Bytes_Result.xlsx
+++ b/Moderate_Control_Two_Bytes_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7FCE5C-BC49-4015-B425-6E876E66F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30583222-B66A-4FA0-B900-77CABFFB343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="660" windowWidth="20730" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="660" windowWidth="14400" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>(34, 38)</t>
   </si>
@@ -197,9 +197,6 @@
     <t>(Δ48=Δ84=1) and (Δ50 =Δ 54=Δ70=0)</t>
   </si>
   <si>
-    <t>If none of these conditions satisfy</t>
-  </si>
-  <si>
     <t>(Δ38= Δ42= Δ58=0)  and(Δ42= Δ46=Δ62=0) and (Δ44=Δ64= Δ48=0)  and (Δ42= Δ96=1)</t>
   </si>
   <si>
@@ -420,6 +417,12 @@
   </si>
   <si>
     <t>Registers that cannot be confirmed directly but under certain conditions (4 bytes)</t>
+  </si>
+  <si>
+    <t>If condition does not satisfy for target register 0, 1, 2, 4, 8, 10, 14 and 〖(δ〗_68,δ_86) = (1,1)</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +481,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,9 +553,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1269,13 +1320,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G122" sqref="G122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
     <col min="2" max="2" width="9.08984375" customWidth="1"/>
     <col min="7" max="7" width="101.08984375" customWidth="1"/>
     <col min="8" max="8" width="79" customWidth="1"/>
@@ -1292,11 +1343,11 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
@@ -1309,83 +1360,83 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -1415,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -1440,14 +1491,14 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="12">
         <v>0.84030000000000005</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1473,7 +1524,7 @@
         <v>0.7752</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1495,14 +1546,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="17">
         <v>0.86209999999999998</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1524,14 +1575,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="14">
         <v>0.85470000000000002</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1553,14 +1604,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="12">
         <v>0.84030000000000005</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1583,10 +1634,10 @@
         <v>0.78129999999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1609,24 +1660,24 @@
         <v>0.74629999999999996</v>
       </c>
       <c r="G24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" t="s">
         <v>55</v>
       </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -1666,6 +1717,9 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -1699,7 +1753,7 @@
         <v>53</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1722,10 +1776,10 @@
         <v>0.73529999999999995</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1744,14 +1798,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="15">
         <v>0.8</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1774,10 +1828,10 @@
         <v>0.63690000000000002</v>
       </c>
       <c r="G37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1800,10 +1854,10 @@
         <v>0.58479999999999999</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1826,38 +1880,38 @@
         <v>0.56820000000000004</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>A41+1</f>
         <v>32</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="13">
         <v>0.94340000000000002</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -1878,7 +1932,7 @@
       </c>
       <c r="F45" s="7"/>
       <c r="H45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -1899,7 +1953,7 @@
       </c>
       <c r="F47" s="7"/>
       <c r="H47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -1928,11 +1982,11 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="13">
         <v>0.94340000000000002</v>
       </c>
       <c r="H50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1953,7 +2007,7 @@
       </c>
       <c r="F52" s="7"/>
       <c r="H52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
@@ -1973,7 +2027,7 @@
         <v>0.51019999999999999</v>
       </c>
       <c r="H54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -1996,7 +2050,7 @@
         <v>0.4975</v>
       </c>
       <c r="H56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -2019,21 +2073,21 @@
         <v>0.5181</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
@@ -2053,7 +2107,7 @@
       </c>
       <c r="F61" s="7"/>
       <c r="H61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -2074,7 +2128,7 @@
       </c>
       <c r="F63" s="7"/>
       <c r="H63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -2090,11 +2144,11 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="12">
         <v>0.84030000000000005</v>
       </c>
       <c r="H65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -2114,7 +2168,7 @@
         <v>0.89290000000000003</v>
       </c>
       <c r="H67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -2130,11 +2184,11 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="14">
         <v>0.85470000000000002</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -2150,11 +2204,11 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="15">
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -2173,11 +2227,11 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="16">
         <v>0.78739999999999999</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -2196,25 +2250,25 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="16">
         <v>0.78739999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
@@ -2233,10 +2287,10 @@
         <v>0.40820000000000001</v>
       </c>
       <c r="G78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -2256,10 +2310,10 @@
         <v>0.45050000000000001</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -2276,13 +2330,13 @@
         <v>69</v>
       </c>
       <c r="F82" s="9">
-        <v>0.4032</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="G82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -2339,10 +2393,10 @@
       </c>
       <c r="F88" s="7"/>
       <c r="G88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -2382,17 +2436,17 @@
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
@@ -2401,10 +2455,10 @@
       </c>
       <c r="F94" s="7"/>
       <c r="G94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -2520,17 +2574,17 @@
       <c r="F109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
@@ -2544,11 +2598,11 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F112" s="17">
         <v>0.86209999999999998</v>
       </c>
       <c r="H112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.35">
@@ -2580,7 +2634,7 @@
       </c>
       <c r="F116" s="7"/>
       <c r="H116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.35">
@@ -2611,7 +2665,7 @@
       </c>
       <c r="F120" s="7"/>
       <c r="H120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.35">
@@ -2630,7 +2684,7 @@
         <v>0.60980000000000001</v>
       </c>
       <c r="H122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.35">
@@ -2645,11 +2699,11 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="18">
         <v>0.61729999999999996</v>
       </c>
       <c r="H124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -2668,21 +2722,21 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="H126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
@@ -2700,7 +2754,7 @@
         <v>0.82640000000000002</v>
       </c>
       <c r="H129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
@@ -2735,7 +2789,7 @@
       </c>
       <c r="F133" s="7"/>
       <c r="H133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
@@ -2778,11 +2832,11 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="18">
         <v>0.61729999999999996</v>
       </c>
       <c r="H139" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -2801,10 +2855,10 @@
         <v>0.62109999999999999</v>
       </c>
       <c r="G141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
@@ -2823,7 +2877,7 @@
         <v>0.63290000000000002</v>
       </c>
       <c r="H143" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
